--- a/data/exp_pro/integration_results_part2.xlsx
+++ b/data/exp_pro/integration_results_part2.xlsx
@@ -99,7 +99,7 @@
     <t>B7</t>
   </si>
   <si>
-    <t>P9</t>
+    <t>T9</t>
   </si>
   <si>
     <t>B8</t>
@@ -545,13 +545,13 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>3.4549350048547195e-7</v>
+        <v>3.454935004854869e-7</v>
       </c>
       <c r="C2">
-        <v>0.002195363903022005</v>
+        <v>0.0021953639030220062</v>
       </c>
       <c r="D2">
-        <v>0.20714715638552772</v>
+        <v>0.20714715638553238</v>
       </c>
       <c r="E2">
         <v>1.0</v>
@@ -566,19 +566,19 @@
         <v>0.5427384753318241</v>
       </c>
       <c r="I2">
-        <v>0.00021741669754312028</v>
+        <v>0.0002174166975431116</v>
       </c>
       <c r="J2">
-        <v>0.00010203517350259239</v>
+        <v>0.00010203517350259109</v>
       </c>
       <c r="K2">
-        <v>2.1308014685504153</v>
+        <v>2.1308014685503576</v>
       </c>
       <c r="L2">
-        <v>0.5521332153899651</v>
+        <v>0.5521332153899413</v>
       </c>
       <c r="M2">
-        <v>15.0</v>
+        <v>15.339999999999998</v>
       </c>
       <c r="N2" t="s">
         <v>16</v>
@@ -592,13 +592,13 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.4277129993775088e-6</v>
+        <v>1.4277129993775066e-6</v>
       </c>
       <c r="C3">
         <v>0.002027887180139522</v>
       </c>
       <c r="D3">
-        <v>0.7418271418611675</v>
+        <v>0.7418271418611677</v>
       </c>
       <c r="E3">
         <v>1.0</v>
@@ -622,10 +622,10 @@
         <v>2.3606539757964953</v>
       </c>
       <c r="L3">
-        <v>0.7059342109593896</v>
+        <v>0.7059342109593906</v>
       </c>
       <c r="M3">
-        <v>15.0</v>
+        <v>17.12</v>
       </c>
       <c r="N3" t="s">
         <v>18</v>
@@ -639,10 +639,10 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>2.0375211975202566e-6</v>
+        <v>2.0375211975202626e-6</v>
       </c>
       <c r="C4">
-        <v>0.002038363805894201</v>
+        <v>0.0020383638058942017</v>
       </c>
       <c r="D4">
         <v>0.8684761367067815</v>
@@ -660,19 +660,19 @@
         <v>0.7883782047652892</v>
       </c>
       <c r="I4">
-        <v>0.0010002466724748898</v>
+        <v>0.0010002466724748863</v>
       </c>
       <c r="J4">
-        <v>0.0004094266106696516</v>
+        <v>0.00040942661066965076</v>
       </c>
       <c r="K4">
-        <v>2.4430426513775014</v>
+        <v>2.4430426513774983</v>
       </c>
       <c r="L4">
-        <v>0.306991487328271</v>
+        <v>0.3069914873282701</v>
       </c>
       <c r="M4">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="N4" t="s">
         <v>18</v>
@@ -686,13 +686,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>2.4272060606869774e-6</v>
+        <v>2.4272060606869757e-6</v>
       </c>
       <c r="C5">
         <v>0.002165899484151282</v>
       </c>
       <c r="D5">
-        <v>0.8489626477318301</v>
+        <v>0.8489626477318308</v>
       </c>
       <c r="E5">
         <v>1.0</v>
@@ -716,10 +716,10 @@
         <v>2.5102871110632936</v>
       </c>
       <c r="L5">
-        <v>-0.017914751532608037</v>
+        <v>-0.01791475153260805</v>
       </c>
       <c r="M5">
-        <v>15.0</v>
+        <v>23.41</v>
       </c>
       <c r="N5" t="s">
         <v>18</v>
@@ -733,13 +733,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>1.7482001998510856e-6</v>
+        <v>1.7482001998510807e-6</v>
       </c>
       <c r="C6">
-        <v>0.002164825734544748</v>
+        <v>0.0021648257345447475</v>
       </c>
       <c r="D6">
-        <v>0.745949242287155</v>
+        <v>0.7459492422871554</v>
       </c>
       <c r="E6">
         <v>1.0</v>
@@ -757,16 +757,16 @@
         <v>0.003006427189292008</v>
       </c>
       <c r="J6">
-        <v>0.0011219306347099401</v>
+        <v>0.0011219306347099406</v>
       </c>
       <c r="K6">
-        <v>2.6796907903930074</v>
+        <v>2.6796907903930065</v>
       </c>
       <c r="L6">
-        <v>-0.01038742505819842</v>
+        <v>-0.01038742505819845</v>
       </c>
       <c r="M6">
-        <v>15.0</v>
+        <v>22.4</v>
       </c>
       <c r="N6" t="s">
         <v>18</v>
@@ -780,13 +780,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>1.9864290508868256e-6</v>
+        <v>1.9864290508868247e-6</v>
       </c>
       <c r="C7">
         <v>0.002229251406502852</v>
       </c>
       <c r="D7">
-        <v>0.8837664182613665</v>
+        <v>0.8837664182613666</v>
       </c>
       <c r="E7">
         <v>1.0</v>
@@ -810,10 +810,10 @@
         <v>2.4468966879512446</v>
       </c>
       <c r="L7">
-        <v>0.40071115019264203</v>
+        <v>0.40071115019264225</v>
       </c>
       <c r="M7">
-        <v>15.0</v>
+        <v>7.369999999999999</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -827,10 +827,10 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>9.92907788767062e-6</v>
+        <v>9.929077887670623e-6</v>
       </c>
       <c r="C8">
-        <v>0.0022327646556013028</v>
+        <v>0.002232764655601303</v>
       </c>
       <c r="D8">
         <v>0.9891940311706093</v>
@@ -848,19 +848,19 @@
         <v>0.970329173161515</v>
       </c>
       <c r="I8">
-        <v>0.0006270538660406669</v>
+        <v>0.0006270538660406652</v>
       </c>
       <c r="J8">
-        <v>0.00032074321232526464</v>
+        <v>0.0003207432123252642</v>
       </c>
       <c r="K8">
-        <v>1.9550027621621924</v>
+        <v>1.9550027621621897</v>
       </c>
       <c r="L8">
-        <v>0.11063051769861967</v>
+        <v>0.11063051769861963</v>
       </c>
       <c r="M8">
-        <v>15.0</v>
+        <v>3.0100000000000007</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
@@ -874,13 +874,13 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>2.9065714284258136e-6</v>
+        <v>2.90657142842583e-6</v>
       </c>
       <c r="C9">
-        <v>0.0021531631118010546</v>
+        <v>0.002153163111801056</v>
       </c>
       <c r="D9">
-        <v>0.933547633724957</v>
+        <v>0.9335476337249569</v>
       </c>
       <c r="E9">
         <v>1.0</v>
@@ -895,19 +895,19 @@
         <v>0.9665391959202285</v>
       </c>
       <c r="I9">
-        <v>0.0016270824779929666</v>
+        <v>0.0016270824779929614</v>
       </c>
       <c r="J9">
-        <v>0.0006594371826917998</v>
+        <v>0.0006594371826917985</v>
       </c>
       <c r="K9">
-        <v>2.467380549199959</v>
+        <v>2.467380549199956</v>
       </c>
       <c r="L9">
-        <v>0.45978569292471544</v>
+        <v>0.45978569292471283</v>
       </c>
       <c r="M9">
-        <v>15.0</v>
+        <v>3.6100000000000003</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
@@ -921,13 +921,13 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>8.700629079584415e-7</v>
+        <v>8.700629079584297e-7</v>
       </c>
       <c r="C10">
-        <v>0.002160644959950407</v>
+        <v>0.0021606449599504063</v>
       </c>
       <c r="D10">
-        <v>0.5660060113648987</v>
+        <v>0.566006011364897</v>
       </c>
       <c r="E10">
         <v>1.0</v>
@@ -942,19 +942,19 @@
         <v>0.76267162780874</v>
       </c>
       <c r="I10">
-        <v>0.0015821725279328638</v>
+        <v>0.0015821725279328673</v>
       </c>
       <c r="J10">
-        <v>0.0006415529308614483</v>
+        <v>0.0006415529308614492</v>
       </c>
       <c r="K10">
-        <v>2.4661605486056994</v>
+        <v>2.4661605486057017</v>
       </c>
       <c r="L10">
-        <v>0.30011312926521355</v>
+        <v>0.3001131292652176</v>
       </c>
       <c r="M10">
-        <v>15.0</v>
+        <v>15.540000000000003</v>
       </c>
       <c r="N10" t="s">
         <v>27</v>
@@ -968,13 +968,13 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>1.1523244102351937e-6</v>
+        <v>1.1523244102352113e-6</v>
       </c>
       <c r="C11">
-        <v>0.002285845575140593</v>
+        <v>0.0022858455751405943</v>
       </c>
       <c r="D11">
-        <v>0.6931144897680389</v>
+        <v>0.6931144897680399</v>
       </c>
       <c r="E11">
         <v>1.0</v>
@@ -989,19 +989,19 @@
         <v>0.7291706737769957</v>
       </c>
       <c r="I11">
-        <v>0.0022682853465264205</v>
+        <v>0.0022682853465264136</v>
       </c>
       <c r="J11">
-        <v>0.0008632603826143584</v>
+        <v>0.0008632603826143571</v>
       </c>
       <c r="K11">
-        <v>2.6275795718285897</v>
+        <v>2.6275795718285857</v>
       </c>
       <c r="L11">
-        <v>0.2733245754476385</v>
+        <v>0.27332457544763433</v>
       </c>
       <c r="M11">
-        <v>15.0</v>
+        <v>17.87</v>
       </c>
       <c r="N11" t="s">
         <v>27</v>
@@ -1015,7 +1015,7 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>5.8282572788893355e-6</v>
+        <v>5.828257278889335e-6</v>
       </c>
       <c r="C12">
         <v>0.0022226448100714003</v>
@@ -1045,10 +1045,10 @@
         <v>2.447938553599221</v>
       </c>
       <c r="L12">
-        <v>0.1771525953023234</v>
+        <v>0.17715259530232344</v>
       </c>
       <c r="M12">
-        <v>15.0</v>
+        <v>8.48</v>
       </c>
       <c r="N12" t="s">
         <v>30</v>
@@ -1062,13 +1062,13 @@
         <v>31</v>
       </c>
       <c r="B13">
-        <v>4.052567130930671e-6</v>
+        <v>4.052567130930678e-6</v>
       </c>
       <c r="C13">
-        <v>0.0021717061718686077</v>
+        <v>0.0021717061718686086</v>
       </c>
       <c r="D13">
-        <v>0.9796417139314971</v>
+        <v>0.9796417139314972</v>
       </c>
       <c r="E13">
         <v>1.0</v>
@@ -1083,19 +1083,19 @@
         <v>0.9620773348292715</v>
       </c>
       <c r="I13">
-        <v>0.0013233636020813563</v>
+        <v>0.0013233636020813528</v>
       </c>
       <c r="J13">
-        <v>0.000544933964636733</v>
+        <v>0.0005449339646367321</v>
       </c>
       <c r="K13">
-        <v>2.4284843448206512</v>
+        <v>2.4284843448206486</v>
       </c>
       <c r="L13">
-        <v>0.16852503884196443</v>
+        <v>0.1685250388419641</v>
       </c>
       <c r="M13">
-        <v>15.0</v>
+        <v>7.430000000000001</v>
       </c>
       <c r="N13" t="s">
         <v>30</v>
@@ -1109,13 +1109,13 @@
         <v>32</v>
       </c>
       <c r="B14">
-        <v>4.016566656274017e-6</v>
+        <v>4.016566656274036e-6</v>
       </c>
       <c r="C14">
-        <v>0.002147912824010081</v>
+        <v>0.0021479128240100825</v>
       </c>
       <c r="D14">
-        <v>0.9784131533843891</v>
+        <v>0.9784131533843893</v>
       </c>
       <c r="E14">
         <v>1.0</v>
@@ -1130,19 +1130,19 @@
         <v>0.9777392793223775</v>
       </c>
       <c r="I14">
-        <v>0.0014564887417951242</v>
+        <v>0.0014564887417951172</v>
       </c>
       <c r="J14">
-        <v>0.0006155784484538694</v>
+        <v>0.0006155784484538681</v>
       </c>
       <c r="K14">
-        <v>2.366048950305757</v>
+        <v>2.3660489503057507</v>
       </c>
       <c r="L14">
-        <v>0.13964741476405962</v>
+        <v>0.13964741476405895</v>
       </c>
       <c r="M14">
-        <v>15.0</v>
+        <v>9.19</v>
       </c>
       <c r="N14" t="s">
         <v>30</v>
@@ -1189,7 +1189,7 @@
         <v>0.4281429971149485</v>
       </c>
       <c r="M15">
-        <v>15.0</v>
+        <v>3.51</v>
       </c>
       <c r="N15" t="s">
         <v>24</v>
@@ -1203,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>1.5449371782983663e-6</v>
+        <v>1.544937178298367e-6</v>
       </c>
       <c r="C16">
         <v>0.002414847226502222</v>
       </c>
       <c r="D16">
-        <v>0.7833982568181326</v>
+        <v>0.7833982568181315</v>
       </c>
       <c r="E16">
         <v>1.0</v>
@@ -1233,10 +1233,10 @@
         <v>2.7567569646442265</v>
       </c>
       <c r="L16">
-        <v>0.3869818690789811</v>
+        <v>0.3869818690789809</v>
       </c>
       <c r="M16">
-        <v>15.0</v>
+        <v>6.499999999999999</v>
       </c>
       <c r="N16" t="s">
         <v>35</v>
@@ -1250,13 +1250,13 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>1.887807836236629e-6</v>
+        <v>1.8878078362366244e-6</v>
       </c>
       <c r="C17">
-        <v>0.0023035623458120993</v>
+        <v>0.002303562345812099</v>
       </c>
       <c r="D17">
-        <v>0.6379314885478061</v>
+        <v>0.6379314885478063</v>
       </c>
       <c r="E17">
         <v>1.0</v>
@@ -1271,19 +1271,19 @@
         <v>0.9415347369304317</v>
       </c>
       <c r="I17">
-        <v>0.0015394286838070377</v>
+        <v>0.0015394286838070412</v>
       </c>
       <c r="J17">
-        <v>0.00030171562415479006</v>
+        <v>0.0003017156241547905</v>
       </c>
       <c r="K17">
-        <v>5.102250465548513</v>
+        <v>5.102250465548517</v>
       </c>
       <c r="L17">
-        <v>0.3219360634031292</v>
+        <v>0.32193606340313</v>
       </c>
       <c r="M17">
-        <v>15.0</v>
+        <v>4.780000000000001</v>
       </c>
       <c r="N17" t="s">
         <v>35</v>

--- a/data/exp_pro/integration_results_part2.xlsx
+++ b/data/exp_pro/integration_results_part2.xlsx
@@ -583,9 +583,7 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2">
-        <v>1.3</v>
-      </c>
+      <c r="O2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
@@ -631,7 +629,7 @@
         <v>18</v>
       </c>
       <c r="O3">
-        <v>0.65</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -678,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="O4">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -725,7 +723,7 @@
         <v>18</v>
       </c>
       <c r="O5">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -772,7 +770,7 @@
         <v>18</v>
       </c>
       <c r="O6">
-        <v>40.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -819,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="O7">
-        <v>24.6</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -865,9 +863,7 @@
       <c r="N8" t="s">
         <v>24</v>
       </c>
-      <c r="O8">
-        <v>0.89</v>
-      </c>
+      <c r="O8"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -912,9 +908,7 @@
       <c r="N9" t="s">
         <v>24</v>
       </c>
-      <c r="O9">
-        <v>0.53</v>
-      </c>
+      <c r="O9"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -960,7 +954,7 @@
         <v>27</v>
       </c>
       <c r="O10">
-        <v>3.49</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1007,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="O11">
-        <v>29.5</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1054,7 +1048,7 @@
         <v>30</v>
       </c>
       <c r="O12">
-        <v>0.45</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1101,7 +1095,7 @@
         <v>30</v>
       </c>
       <c r="O13">
-        <v>19.6</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1148,7 +1142,7 @@
         <v>30</v>
       </c>
       <c r="O14">
-        <v>20.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1194,9 +1188,7 @@
       <c r="N15" t="s">
         <v>24</v>
       </c>
-      <c r="O15">
-        <v>30.8</v>
-      </c>
+      <c r="O15"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -1242,7 +1234,7 @@
         <v>35</v>
       </c>
       <c r="O16">
-        <v>4.9</v>
+        <v>9.2</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1288,9 +1280,7 @@
       <c r="N17" t="s">
         <v>35</v>
       </c>
-      <c r="O17">
-        <v>25.4</v>
-      </c>
+      <c r="O17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/exp_pro/integration_results_part2.xlsx
+++ b/data/exp_pro/integration_results_part2.xlsx
@@ -583,7 +583,9 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2"/>
+      <c r="O2">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
@@ -817,7 +819,7 @@
         <v>18</v>
       </c>
       <c r="O7">
-        <v>15.4</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -858,7 +860,7 @@
         <v>0.11063051769861963</v>
       </c>
       <c r="M8">
-        <v>3.0100000000000007</v>
+        <v>3.42</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
@@ -903,12 +905,14 @@
         <v>0.45978569292471283</v>
       </c>
       <c r="M9">
-        <v>3.6100000000000003</v>
+        <v>3.51</v>
       </c>
       <c r="N9" t="s">
         <v>24</v>
       </c>
-      <c r="O9"/>
+      <c r="O9">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
@@ -954,7 +958,7 @@
         <v>27</v>
       </c>
       <c r="O10">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1183,12 +1187,14 @@
         <v>0.4281429971149485</v>
       </c>
       <c r="M15">
-        <v>3.51</v>
+        <v>3.34</v>
       </c>
       <c r="N15" t="s">
         <v>24</v>
       </c>
-      <c r="O15"/>
+      <c r="O15">
+        <v>44.0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
@@ -1280,7 +1286,9 @@
       <c r="N17" t="s">
         <v>35</v>
       </c>
-      <c r="O17"/>
+      <c r="O17">
+        <v>20.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
